--- a/IA/Practica Individual/Graficas.xlsx
+++ b/IA/Practica Individual/Graficas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Google Drive\Universidad\Segundo\2º. Cuatrimestre\Inteligencia Artificial\Practica Individual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\crispy-invention\IA\Practica Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C60489B-2577-492F-9076-645053725EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A009AC-EBC5-464A-9115-F263D10D6CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{56DCA32C-DAB5-4FAA-968E-AEDF8D8E29E3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Agentes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,8 +156,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -204,8 +204,8 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -219,43 +219,43 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -47336,7 +47336,7 @@
   <autoFilter ref="B91:E94" xr:uid="{6E3B2FCC-B214-4370-B260-1497B6ECDB25}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7E9469FA-BD96-43BC-B16F-1C5026CE1682}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{DA0AD2B6-A225-4273-9361-9972B353572B}" name="Tiempo Ejecucion" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{DA0AD2B6-A225-4273-9361-9972B353572B}" name="Tiempo Ejecucion" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{D759E692-D022-402C-834B-3285608A59D1}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{62F6AF76-1530-4A1C-8989-2CD530CDAAA8}" name="Coste Camino"/>
   </tableColumns>
@@ -47349,7 +47349,7 @@
   <autoFilter ref="B106:E108" xr:uid="{2AE78488-3996-4D5A-98D3-F7C44114F08B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2C186032-6FB1-41B0-92D5-17BAA3D74478}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{F7564A83-E33F-4192-AB55-9E6448DF3542}" name="Tiempo Ejecucion" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F7564A83-E33F-4192-AB55-9E6448DF3542}" name="Tiempo Ejecucion" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{3F74175A-1D43-4854-AF67-B897F95C41F4}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{66CDEE61-6C5B-4A36-B41C-27A9EEDEE297}" name="Coste Camino"/>
   </tableColumns>
@@ -47362,7 +47362,7 @@
   <autoFilter ref="B34:E38" xr:uid="{A86861A8-C48D-4E06-9D45-80B4395F0592}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4D38715C-F6FF-4ACE-9502-0E70DD65141D}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{947BED08-7C23-4ECB-8B6B-ABDC62A5BB2A}" name="Tiempo Ejecucion" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{947BED08-7C23-4ECB-8B6B-ABDC62A5BB2A}" name="Tiempo Ejecucion" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{DB31606D-5711-49D6-9160-C8910FB5CA7C}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{7B0D2885-CBA6-48DA-AAF4-014DC0BC44E5}" name="Coste Camino"/>
   </tableColumns>
@@ -47375,7 +47375,7 @@
   <autoFilter ref="B50:E54" xr:uid="{0B54423A-4D20-4AE9-BC00-CF8A80F5D75F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FAAD0C86-D730-4CE5-8083-51245BD58CB2}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{73D1C7C1-D5E0-4449-9D8A-14172FD29987}" name="Tiempo Ejecucion" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{73D1C7C1-D5E0-4449-9D8A-14172FD29987}" name="Tiempo Ejecucion" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{9E4EABFD-AB06-4A09-A8EF-E28CE4910C12}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{19C20B98-9C3A-4DD6-AA75-58689780B4EE}" name="Coste Camino"/>
   </tableColumns>
@@ -47397,7 +47397,7 @@
     <tableColumn id="8" xr3:uid="{616FF5C6-698B-4362-BF44-7E4D9936816E}" name="Tiempo Ejecucion5" dataCellStyle="Normal"/>
     <tableColumn id="9" xr3:uid="{0221425E-1CB7-4D38-95AC-19B877359D75}" name="Nodos Expandidos6" dataCellStyle="Normal"/>
     <tableColumn id="10" xr3:uid="{1A9CF8D7-3239-47A8-BE9B-1F010CAA5837}" name="Coste Camino7" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{3654BA25-E1ED-4739-9010-D1EF23FA3C64}" name="Tiempo Ejecucion8" dataDxfId="8" dataCellStyle="Normal">
+    <tableColumn id="11" xr3:uid="{3654BA25-E1ED-4739-9010-D1EF23FA3C64}" name="Tiempo Ejecucion8" dataDxfId="11" dataCellStyle="Normal">
       <calculatedColumnFormula>C6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{85C62F0F-E3AE-4B97-A547-9965654556EB}" name="Nodos Expandidos9" dataCellStyle="Normal"/>
@@ -47412,7 +47412,7 @@
   <autoFilter ref="B18:E22" xr:uid="{AF88980A-BFC6-40D6-87C2-79EB556B5D3C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6FEC9313-DD2C-4A0E-866A-3755F70D105F}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{8ECF90AB-F1C7-41F5-B465-4122BC5E17B0}" name="Tiempo Ejecucion" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{8ECF90AB-F1C7-41F5-B465-4122BC5E17B0}" name="Tiempo Ejecucion" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{8C82F9AD-F2B7-4851-87D5-9A6486025B51}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{C210128C-0E23-4B10-9B8E-17A708CB3132}" name="Coste Camino"/>
   </tableColumns>
@@ -47425,7 +47425,7 @@
   <autoFilter ref="B34:E38" xr:uid="{A86861A8-C48D-4E06-9D45-80B4395F0592}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D5805179-DC36-4F71-AA22-DDF6AFE3AC2F}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{36331AAE-2ADB-4D19-9BFE-408978DD9184}" name="Tiempo Ejecucion" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{36331AAE-2ADB-4D19-9BFE-408978DD9184}" name="Tiempo Ejecucion" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{D9D46F58-69CF-4280-B9B5-7C0E7C2AB38A}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{063CA56F-46E1-44BE-B25E-7EFDCC5187BE}" name="Coste Camino"/>
   </tableColumns>
@@ -47438,7 +47438,7 @@
   <autoFilter ref="B50:E54" xr:uid="{0B54423A-4D20-4AE9-BC00-CF8A80F5D75F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{25091765-E81C-4BC4-8A3B-BA9A52813F6C}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{5FE4893D-44EF-4492-B176-6C7A7291B355}" name="Tiempo Ejecucion" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{5FE4893D-44EF-4492-B176-6C7A7291B355}" name="Tiempo Ejecucion" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{D465E9DF-AAAC-4418-B906-D247666F5C49}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{5035EDB0-D0DE-441D-9F2F-B0578921295A}" name="Coste Camino"/>
   </tableColumns>
@@ -47451,7 +47451,7 @@
   <autoFilter ref="B91:E94" xr:uid="{6E3B2FCC-B214-4370-B260-1497B6ECDB25}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{58C4AED7-D380-4D1D-8D19-4D70E252E081}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{C613B2F9-DC18-4742-A0B7-4129B161FC35}" name="Tiempo Ejecucion" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C613B2F9-DC18-4742-A0B7-4129B161FC35}" name="Tiempo Ejecucion" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{72742A97-0BF4-4855-BF6F-178DD1ABF14D}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{C0DDFFD3-6A3A-4A30-BFC5-03930FE04C88}" name="Coste Camino"/>
   </tableColumns>
@@ -47464,7 +47464,7 @@
   <autoFilter ref="B106:E108" xr:uid="{2AE78488-3996-4D5A-98D3-F7C44114F08B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{05D572EE-2DA1-4A34-8A37-13A383E919C6}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{13DF088C-F4C3-4FDA-AA2B-EEC0F9571A8C}" name="Tiempo Ejecucion" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{13DF088C-F4C3-4FDA-AA2B-EEC0F9571A8C}" name="Tiempo Ejecucion" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{0E25C718-D4C2-4B45-AE3F-FFD0E180198B}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{D5E0F2DB-B873-41FF-9A92-74FE296410EB}" name="Coste Camino"/>
   </tableColumns>
@@ -47803,7 +47803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620E936F-ED39-4C99-8DF8-00BF67E784CB}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -48690,8 +48690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3378C10A-A94B-49C2-8459-A4A07A074074}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IA/Practica Individual/Graficas.xlsx
+++ b/IA/Practica Individual/Graficas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\crispy-invention\IA\Practica Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A009AC-EBC5-464A-9115-F263D10D6CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84824554-A2AE-440E-905E-8837C93B4B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{56DCA32C-DAB5-4FAA-968E-AEDF8D8E29E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{56DCA32C-DAB5-4FAA-968E-AEDF8D8E29E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Algoritmo</t>
-  </si>
-  <si>
-    <t>Tiempo Ejecucion</t>
   </si>
   <si>
     <t>Nodos Expandidos</t>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t>XXX</t>
+  </si>
+  <si>
+    <t>Tiempo Ejecución</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1007,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Ejecucion</c:v>
+                  <c:v>Tiempo Ejecución</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2108,7 +2108,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Ejecucion</c:v>
+                  <c:v>Tiempo Ejecución</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3165,6 +3165,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempo Ejecución</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3209,7 +3234,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Ejecucion</c:v>
+                  <c:v>Tiempo Ejecución</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4272,6 +4297,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempo Ejecución</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4316,7 +4366,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Ejecucion</c:v>
+                  <c:v>Tiempo Ejecución</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4661,7 +4711,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Tiempo Ejecucion</a:t>
+              <a:t>Tiempo Ejecución</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6057,6 +6107,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempo Ejecución</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6101,7 +6176,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Ejecucion</c:v>
+                  <c:v>Tiempo Ejecución</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7805,7 +7880,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Tiempo Ejecucion</a:t>
+              <a:t>Tiempo Ejecución</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9027,6 +9102,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempo Ejecución</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9071,7 +9171,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Ejecucion</c:v>
+                  <c:v>Tiempo Ejecución</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10788,6 +10888,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempo Ejecución</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10832,7 +10957,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Ejecucion</c:v>
+                  <c:v>Tiempo Ejecución</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11853,6 +11978,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempo Ejecución</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11897,7 +12047,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Ejecucion</c:v>
+                  <c:v>Tiempo Ejecución</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12909,6 +13059,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempo Ejecución</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12953,7 +13128,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Ejecucion</c:v>
+                  <c:v>Tiempo Ejecución</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14009,7 +14184,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Ejecucion</c:v>
+                  <c:v>Tiempo Ejecución</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14376,7 +14551,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Ejecucion</c:v>
+                  <c:v>Tiempo Ejecución</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15465,7 +15640,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Ejecucion</c:v>
+                  <c:v>Tiempo Ejecución</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16554,7 +16729,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Ejecucion</c:v>
+                  <c:v>Tiempo Ejecución</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18377,7 +18552,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Ejecucion</c:v>
+                  <c:v>Tiempo Ejecución</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -47310,7 +47485,7 @@
   <autoFilter ref="B2:E6" xr:uid="{B760DDE7-63DB-40AE-B955-224B26277AF2}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7EAA56F3-46A5-40DD-B6DC-58A3E3A6710F}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{34AF07FC-6FA8-4919-AA27-1AD9D2D9A2DC}" name="Tiempo Ejecucion" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{34AF07FC-6FA8-4919-AA27-1AD9D2D9A2DC}" name="Tiempo Ejecución" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{3CE91CF4-F548-4568-81BB-72E56D52FE55}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{21D36883-62AC-424B-B275-5E70B473EF69}" name="Coste Camino"/>
   </tableColumns>
@@ -47323,7 +47498,7 @@
   <autoFilter ref="B18:E21" xr:uid="{AF88980A-BFC6-40D6-87C2-79EB556B5D3C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{787729DD-9E7E-488E-911E-453732D3D7FD}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{A803B8A2-EC7C-42D9-9469-F92167AB9B28}" name="Tiempo Ejecucion" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A803B8A2-EC7C-42D9-9469-F92167AB9B28}" name="Tiempo Ejecución" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{15CB53EE-AD4C-4454-9DE6-0C80D87ED445}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{2E643CBE-932F-41B6-9B7B-30898D78CDA4}" name="Coste Camino"/>
   </tableColumns>
@@ -47336,7 +47511,7 @@
   <autoFilter ref="B91:E94" xr:uid="{6E3B2FCC-B214-4370-B260-1497B6ECDB25}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7E9469FA-BD96-43BC-B16F-1C5026CE1682}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{DA0AD2B6-A225-4273-9361-9972B353572B}" name="Tiempo Ejecucion" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DA0AD2B6-A225-4273-9361-9972B353572B}" name="Tiempo Ejecución" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{D759E692-D022-402C-834B-3285608A59D1}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{62F6AF76-1530-4A1C-8989-2CD530CDAAA8}" name="Coste Camino"/>
   </tableColumns>
@@ -47349,7 +47524,7 @@
   <autoFilter ref="B106:E108" xr:uid="{2AE78488-3996-4D5A-98D3-F7C44114F08B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2C186032-6FB1-41B0-92D5-17BAA3D74478}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{F7564A83-E33F-4192-AB55-9E6448DF3542}" name="Tiempo Ejecucion" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F7564A83-E33F-4192-AB55-9E6448DF3542}" name="Tiempo Ejecución" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{3F74175A-1D43-4854-AF67-B897F95C41F4}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{66CDEE61-6C5B-4A36-B41C-27A9EEDEE297}" name="Coste Camino"/>
   </tableColumns>
@@ -47362,7 +47537,7 @@
   <autoFilter ref="B34:E38" xr:uid="{A86861A8-C48D-4E06-9D45-80B4395F0592}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4D38715C-F6FF-4ACE-9502-0E70DD65141D}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{947BED08-7C23-4ECB-8B6B-ABDC62A5BB2A}" name="Tiempo Ejecucion" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{947BED08-7C23-4ECB-8B6B-ABDC62A5BB2A}" name="Tiempo Ejecución" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{DB31606D-5711-49D6-9160-C8910FB5CA7C}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{7B0D2885-CBA6-48DA-AAF4-014DC0BC44E5}" name="Coste Camino"/>
   </tableColumns>
@@ -47375,7 +47550,7 @@
   <autoFilter ref="B50:E54" xr:uid="{0B54423A-4D20-4AE9-BC00-CF8A80F5D75F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FAAD0C86-D730-4CE5-8083-51245BD58CB2}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{73D1C7C1-D5E0-4449-9D8A-14172FD29987}" name="Tiempo Ejecucion" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{73D1C7C1-D5E0-4449-9D8A-14172FD29987}" name="Tiempo Ejecución" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{9E4EABFD-AB06-4A09-A8EF-E28CE4910C12}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{19C20B98-9C3A-4DD6-AA75-58689780B4EE}" name="Coste Camino"/>
   </tableColumns>
@@ -47388,7 +47563,7 @@
   <autoFilter ref="B67:N71" xr:uid="{0C60DF0B-60BD-4792-8625-02C86312995E}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{377DF019-B49D-43F9-9D97-09989A0008EB}" name="Columnas" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{BCDB2634-5053-40BD-9B4A-2DEBA47F566F}" name="Tiempo Ejecucion" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{BCDB2634-5053-40BD-9B4A-2DEBA47F566F}" name="Tiempo Ejecución" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{0D79F496-26B8-4161-82C5-A338F11B3DBE}" name="Nodos Expandidos" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{45294232-1E44-43EC-A6A0-51E098324816}" name="Coste Camino" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{1F888C1F-9B9E-4AC2-A4AB-1EB625F70489}" name="Tiempo Ejecucion2" dataCellStyle="Normal"/>
@@ -47412,7 +47587,7 @@
   <autoFilter ref="B18:E22" xr:uid="{AF88980A-BFC6-40D6-87C2-79EB556B5D3C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6FEC9313-DD2C-4A0E-866A-3755F70D105F}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{8ECF90AB-F1C7-41F5-B465-4122BC5E17B0}" name="Tiempo Ejecucion" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{8ECF90AB-F1C7-41F5-B465-4122BC5E17B0}" name="Tiempo Ejecución" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{8C82F9AD-F2B7-4851-87D5-9A6486025B51}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{C210128C-0E23-4B10-9B8E-17A708CB3132}" name="Coste Camino"/>
   </tableColumns>
@@ -47425,7 +47600,7 @@
   <autoFilter ref="B34:E38" xr:uid="{A86861A8-C48D-4E06-9D45-80B4395F0592}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D5805179-DC36-4F71-AA22-DDF6AFE3AC2F}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{36331AAE-2ADB-4D19-9BFE-408978DD9184}" name="Tiempo Ejecucion" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{36331AAE-2ADB-4D19-9BFE-408978DD9184}" name="Tiempo Ejecución" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{D9D46F58-69CF-4280-B9B5-7C0E7C2AB38A}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{063CA56F-46E1-44BE-B25E-7EFDCC5187BE}" name="Coste Camino"/>
   </tableColumns>
@@ -47438,7 +47613,7 @@
   <autoFilter ref="B50:E54" xr:uid="{0B54423A-4D20-4AE9-BC00-CF8A80F5D75F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{25091765-E81C-4BC4-8A3B-BA9A52813F6C}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{5FE4893D-44EF-4492-B176-6C7A7291B355}" name="Tiempo Ejecucion" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{5FE4893D-44EF-4492-B176-6C7A7291B355}" name="Tiempo Ejecución" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{D465E9DF-AAAC-4418-B906-D247666F5C49}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{5035EDB0-D0DE-441D-9F2F-B0578921295A}" name="Coste Camino"/>
   </tableColumns>
@@ -47451,7 +47626,7 @@
   <autoFilter ref="B91:E94" xr:uid="{6E3B2FCC-B214-4370-B260-1497B6ECDB25}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{58C4AED7-D380-4D1D-8D19-4D70E252E081}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{C613B2F9-DC18-4742-A0B7-4129B161FC35}" name="Tiempo Ejecucion" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C613B2F9-DC18-4742-A0B7-4129B161FC35}" name="Tiempo Ejecución" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{72742A97-0BF4-4855-BF6F-178DD1ABF14D}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{C0DDFFD3-6A3A-4A30-BFC5-03930FE04C88}" name="Coste Camino"/>
   </tableColumns>
@@ -47464,7 +47639,7 @@
   <autoFilter ref="B106:E108" xr:uid="{2AE78488-3996-4D5A-98D3-F7C44114F08B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{05D572EE-2DA1-4A34-8A37-13A383E919C6}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{13DF088C-F4C3-4FDA-AA2B-EEC0F9571A8C}" name="Tiempo Ejecucion" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{13DF088C-F4C3-4FDA-AA2B-EEC0F9571A8C}" name="Tiempo Ejecución" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{0E25C718-D4C2-4B45-AE3F-FFD0E180198B}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{D5E0F2DB-B873-41FF-9A92-74FE296410EB}" name="Coste Camino"/>
   </tableColumns>
@@ -47477,7 +47652,7 @@
   <autoFilter ref="B2:E5" xr:uid="{B760DDE7-63DB-40AE-B955-224B26277AF2}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{43477D65-6755-4EF2-ACEF-0AE1C4BC0EAF}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{C1951E67-6611-41AE-9E6C-BC7B8B23071E}" name="Tiempo Ejecucion" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C1951E67-6611-41AE-9E6C-BC7B8B23071E}" name="Tiempo Ejecución" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{04592EA8-F4FC-4C4E-8CEB-549ABB391773}" name="Nodos Expandidos"/>
     <tableColumn id="4" xr3:uid="{BE7F27C8-BD36-4CC6-9D4B-D4CAE95C16E0}" name="Coste Camino"/>
   </tableColumns>
@@ -47490,7 +47665,7 @@
   <autoFilter ref="B67:K69" xr:uid="{0C60DF0B-60BD-4792-8625-02C86312995E}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{A75E83D3-03C1-44BA-B2CD-4609EB197B8D}" name="Columnas" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{2E580B51-FF94-4FDF-8CA8-A80E2F43DD07}" name="Tiempo Ejecucion" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{2E580B51-FF94-4FDF-8CA8-A80E2F43DD07}" name="Tiempo Ejecución" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{7686BE02-5923-471F-AE6C-0B19C280FD22}" name="Nodos Expandidos" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{769E4DE2-CAA5-4DFA-B0F4-050C66C72607}" name="Coste Camino" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{158C7D72-540B-4EC0-A7FB-6A881265368F}" name="Tiempo Ejecucion2" dataCellStyle="Normal"/>
@@ -47803,8 +47978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620E936F-ED39-4C99-8DF8-00BF67E784CB}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47824,18 +47999,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
         <v>3.5800933E-3</v>
@@ -47849,7 +48024,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>6.2089663999999999E-3</v>
@@ -47863,7 +48038,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>8.1136100000000003E-3</v>
@@ -47877,7 +48052,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>3.1230440000000002E-3</v>
@@ -47906,7 +48081,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -47932,18 +48107,18 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
         <v>8.4130699999999999E-3</v>
@@ -47957,7 +48132,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2">
         <v>4.7040930000000002E-2</v>
@@ -47971,7 +48146,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2">
         <v>7.1482100000000007E-2</v>
@@ -47985,7 +48160,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2">
         <v>2.4582799999999998E-2</v>
@@ -48011,7 +48186,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -48040,18 +48215,18 @@
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2">
         <v>2.6090145099999999E-3</v>
@@ -48066,7 +48241,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="2">
         <v>7.9219340000000003E-3</v>
@@ -48081,7 +48256,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="2">
         <v>1.454401E-2</v>
@@ -48096,7 +48271,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2">
         <v>1.2060332199999999E-2</v>
@@ -48123,19 +48298,19 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R44" s="2"/>
     </row>
@@ -48162,18 +48337,18 @@
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" s="2">
         <v>3.3699989319999998E-2</v>
@@ -48187,7 +48362,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2">
         <v>8.8829990000000008E-3</v>
@@ -48201,7 +48376,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="2">
         <v>1.4991998669999999E-2</v>
@@ -48215,7 +48390,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" s="2">
         <v>1.2314081189999999E-2</v>
@@ -48229,91 +48404,91 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" t="s">
         <v>25</v>
       </c>
-      <c r="G66" t="s">
+      <c r="J66" t="s">
         <v>25</v>
       </c>
-      <c r="H66" t="s">
+      <c r="K66" t="s">
         <v>25</v>
       </c>
-      <c r="I66" t="s">
+      <c r="L66" t="s">
         <v>26</v>
       </c>
-      <c r="J66" t="s">
+      <c r="M66" t="s">
         <v>26</v>
       </c>
-      <c r="K66" t="s">
+      <c r="N66" t="s">
         <v>26</v>
-      </c>
-      <c r="L66" t="s">
-        <v>27</v>
-      </c>
-      <c r="M66" t="s">
-        <v>27</v>
-      </c>
-      <c r="N66" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
         <v>2</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>3</v>
       </c>
-      <c r="E67" t="s">
-        <v>4</v>
+      <c r="F67" t="s">
+        <v>6</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>7</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>8</v>
       </c>
-      <c r="H67" t="s">
-        <v>9</v>
+      <c r="I67" t="s">
+        <v>10</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>11</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>12</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>13</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>14</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>15</v>
-      </c>
-      <c r="N67" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
@@ -48371,7 +48546,7 @@
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69">
         <f>C19</f>
@@ -48424,7 +48599,7 @@
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70">
         <f>C35</f>
@@ -48477,7 +48652,7 @@
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71">
         <f>C51</f>
@@ -48530,24 +48705,24 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" t="s">
         <v>2</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>3</v>
-      </c>
-      <c r="E91" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C92" s="2">
         <v>2.7258389999999999E-3</v>
@@ -48561,7 +48736,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C93" s="2">
         <v>2.1841044E-2</v>
@@ -48575,7 +48750,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94" s="2">
         <v>1.4280080000000001E-2</v>
@@ -48592,29 +48767,29 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B106" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" t="s">
         <v>2</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>3</v>
-      </c>
-      <c r="E106" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C107" s="2">
         <v>1.7028093300000002E-2</v>
@@ -48628,7 +48803,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C108" s="2">
         <v>4.4438838000000003E-3</v>
@@ -48648,7 +48823,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
@@ -48690,8 +48865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3378C10A-A94B-49C2-8459-A4A07A074074}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48705,24 +48880,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>9.6256260870000006</v>
@@ -48736,7 +48911,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <v>31.313575980500001</v>
@@ -48750,7 +48925,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2">
         <v>1.398301125E-2</v>
@@ -48800,36 +48975,36 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
         <v>0.22431397</v>
@@ -48879,45 +49054,45 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2"/>
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="2"/>
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="2"/>
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2"/>
       <c r="R38" s="2"/>
@@ -48963,109 +49138,109 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
         <v>2</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>3</v>
       </c>
-      <c r="E67" t="s">
-        <v>4</v>
+      <c r="F67" t="s">
+        <v>6</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>7</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>8</v>
       </c>
-      <c r="H67" t="s">
-        <v>9</v>
+      <c r="I67" t="s">
+        <v>10</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>11</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>12</v>
-      </c>
-      <c r="K67" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68">
         <f>C3</f>
@@ -49106,7 +49281,7 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C69">
         <f>C19</f>
@@ -49147,36 +49322,36 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" t="s">
         <v>2</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>3</v>
-      </c>
-      <c r="E91" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94" s="2"/>
     </row>
@@ -49185,30 +49360,30 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B106" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" t="s">
         <v>2</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>3</v>
-      </c>
-      <c r="E106" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C108" s="2"/>
     </row>

--- a/IA/Practica Individual/Graficas.xlsx
+++ b/IA/Practica Individual/Graficas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\crispy-invention\IA\Practica Individual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Gits\crispy-invention\IA\Practica Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84824554-A2AE-440E-905E-8837C93B4B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BA4589-B057-422B-8B69-4B7740B2572A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{56DCA32C-DAB5-4FAA-968E-AEDF8D8E29E3}"/>
   </bookViews>
@@ -4488,10 +4488,10 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.7028093300000002E-2</c:v>
+                  <c:v>4.5365040882000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4438838000000003E-3</c:v>
+                  <c:v>1.7847776409999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5535,10 +5535,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>318</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>316</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -47978,8 +47978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620E936F-ED39-4C99-8DF8-00BF67E784CB}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q94" sqref="Q94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48792,10 +48792,10 @@
         <v>26</v>
       </c>
       <c r="C107" s="2">
-        <v>1.7028093300000002E-2</v>
+        <v>4.5365040882000003E-2</v>
       </c>
       <c r="D107">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E107">
         <v>159</v>
@@ -48806,10 +48806,10 @@
         <v>24</v>
       </c>
       <c r="C108" s="2">
-        <v>4.4438838000000003E-3</v>
+        <v>1.7847776409999998E-2</v>
       </c>
       <c r="D108">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E108">
         <v>159</v>

--- a/IA/Practica Individual/Graficas.xlsx
+++ b/IA/Practica Individual/Graficas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Gits\crispy-invention\IA\Practica Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BA4589-B057-422B-8B69-4B7740B2572A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96A4316-02FE-4990-B38F-A8E8DD6660F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{56DCA32C-DAB5-4FAA-968E-AEDF8D8E29E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{56DCA32C-DAB5-4FAA-968E-AEDF8D8E29E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Agentes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="40">
   <si>
     <t>Escenario 1</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Tiempo Ejecución</t>
+  </si>
+  <si>
+    <t>Estan mal cogidos los datos</t>
   </si>
 </sst>
 </file>
@@ -1003,373 +1006,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Escenarios!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tiempo Ejecución</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Escenarios!$B$3:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Profundidad</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Amplitud</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>A*Euclides</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>A*Manhattan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Escenarios!$C$35:$C$38</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.6090145099999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.9219340000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.454401E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2060332199999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-96E6-4EB8-866A-76D076D090B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="148843935"/>
-        <c:axId val="2057524591"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="148843935"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2057524591"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2057524591"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="148843935"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>Escenarios!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1682,7 +1318,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2049,7 +1685,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2416,7 +2052,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2783,7 +2419,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3150,7 +2786,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3323,43 +2959,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$B$92:$B$94</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$B$92:$B$93</c:f>
+              <c:f>Escenarios!$B$92:$B$94</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Profundidad</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>A*Manhattan</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>Amplitud</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$C$92:$C$94</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$C$92:$C$93</c:f>
+              <c:f>Escenarios!$C$92:$C$94</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2.7258389999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.1841044E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4280080000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3544,7 +3172,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3692,42 +3320,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$B$92:$B$94</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$B$92:$B$93</c:f>
+              <c:f>Escenarios!$B$92:$B$94</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Profundidad</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>A*Manhattan</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>Amplitud</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$D$92:$D$94</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$D$92:$D$93</c:f>
+              <c:f>Escenarios!$D$92:$D$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>264</c:v>
                 </c:pt>
               </c:numCache>
@@ -3913,7 +3533,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4061,42 +3681,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$B$92:$B$94</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$B$92:$B$93</c:f>
+              <c:f>Escenarios!$B$92:$B$94</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Profundidad</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>A*Manhattan</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>Amplitud</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$E$92:$E$94</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$E$92:$E$93</c:f>
+              <c:f>Escenarios!$E$92:$E$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
@@ -4282,7 +3894,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4676,6 +4288,375 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Escenarios!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nodos Expandidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Escenarios!$B$107:$B$108</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Escenarios!$B$107:$B$108</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>A*Manhattan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amplitud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Escenarios!$D$107:$D$109</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Escenarios!$D$107:$D$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D936-4C65-B75B-0859EC510E08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="148821535"/>
+        <c:axId val="2057504623"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="148821535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2057504623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2057504623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148821535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4927,7 +4908,7 @@
               </c:extLst>
               <c:f>Escenarios!$F$68:$F$71</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6.2089663999999999E-3</c:v>
@@ -4938,7 +4919,7 @@
                 <c:pt idx="2">
                   <c:v>7.9219340000000003E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="General">
                   <c:v>8.8829990000000008E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -5409,375 +5390,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Escenarios!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Nodos Expandidos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$B$107:$B$108</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$B$107:$B$108</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>A*Manhattan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Amplitud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$D$107:$D$109</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$D$107:$D$108</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>318</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D936-4C65-B75B-0859EC510E08}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="148821535"/>
-        <c:axId val="2057504623"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="148821535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2057504623"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2057504623"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="148821535"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>Escenarios!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -6092,7 +5704,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -6486,7 +6098,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -6855,7 +6467,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -7180,6 +6792,633 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Coste Camino</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Escenarios!$D$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profundidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Escenarios!$B$68:$B$71</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Escenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Escenario 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Escenario 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Escenario 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Escenarios!$E$68:$E$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BA0-4A2B-AF6F-3D5FDB2E090B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Escenarios!$H$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amplitud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Escenarios!$B$68:$B$71</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Escenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Escenario 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Escenario 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Escenario 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Escenarios!$H$68:$H$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4BA0-4A2B-AF6F-3D5FDB2E090B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Escenarios!$J$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*Euclides</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Escenarios!$B$68:$B$71</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Escenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Escenario 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Escenario 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Escenario 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Escenarios!$K$68:$K$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4BA0-4A2B-AF6F-3D5FDB2E090B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Escenarios!$N$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*Manhattan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Escenarios!$B$68:$B$71</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Escenario 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Escenario 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Escenario 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Escenario 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Escenarios!$N$68:$N$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4BA0-4A2B-AF6F-3D5FDB2E090B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="136140671"/>
+        <c:axId val="2057505455"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="136140671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2057505455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2057505455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="136140671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -9849,31 +10088,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Coste Camino</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9907,18 +10121,18 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Escenarios!$E$66</c:f>
+              <c:f>Escenarios!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Profundidad</c:v>
+                  <c:v>Tiempo Ejecución</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9947,57 +10161,101 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$B$67:$B$71</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$B$68:$B$71</c:f>
+              <c:f>Escenarios!$B$3:$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Escenario 1</c:v>
+                  <c:v>Profundidad</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Escenario 2</c:v>
+                  <c:v>Amplitud</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Escenario 3</c:v>
+                  <c:v>A*Euclides</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Escenario 4</c:v>
+                  <c:v>A*Manhattan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$E$67:$E$71</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$E$68:$E$71</c:f>
+              <c:f>Escenarios!$C$3:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>3.5800933E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>6.2089663999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>8.1136100000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>360</c:v>
+                  <c:v>3.1230440000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10005,313 +10263,14 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F622-423B-814E-C6DB7DAEDE85}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Escenarios!$H$66</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Amplitud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$B$67:$B$71</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$B$68:$B$71</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Escenario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Escenario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Escenario 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Escenario 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$H$67:$H$71</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$H$68:$H$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F622-423B-814E-C6DB7DAEDE85}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Escenarios!$K$66</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>A*Euclides</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$B$67:$B$71</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$B$68:$B$71</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Escenario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Escenario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Escenario 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Escenario 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$K$67:$K$71</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$K$68:$K$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F622-423B-814E-C6DB7DAEDE85}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Escenarios!$N$66</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>A*Manhattan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$B$67:$B$71</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$B$68:$B$71</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Escenario 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Escenario 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Escenario 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Escenario 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Escenarios!$N$67:$N$71</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Escenarios!$N$68:$N$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F622-423B-814E-C6DB7DAEDE85}"/>
+              <c16:uniqueId val="{00000000-0330-40CB-BD36-E3BCD83C027A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -10319,11 +10278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2065150031"/>
-        <c:axId val="2057512527"/>
+        <c:axId val="148843935"/>
+        <c:axId val="2057524591"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2065150031"/>
+        <c:axId val="148843935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10366,7 +10325,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057512527"/>
+        <c:crossAx val="2057524591"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10374,7 +10333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2057512527"/>
+        <c:axId val="2057524591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10394,7 +10353,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10425,7 +10384,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2065150031"/>
+        <c:crossAx val="148843935"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10437,39 +10396,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -14180,11 +14108,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Escenarios!$C$2</c:f>
+              <c:f>Escenarios!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Ejecución</c:v>
+                  <c:v>Nodos Expandidos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14293,21 +14221,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Escenarios!$C$3:$C$6</c:f>
+              <c:f>Escenarios!$D$3:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.5800933E-3</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2089663999999999E-3</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1136100000000003E-3</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1230440000000002E-3</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14315,7 +14243,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0330-40CB-BD36-E3BCD83C027A}"/>
+              <c16:uniqueId val="{00000000-D844-40B9-A717-89593582B718}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14330,11 +14258,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148843935"/>
-        <c:axId val="2057524591"/>
+        <c:axId val="148821535"/>
+        <c:axId val="2057504623"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148843935"/>
+        <c:axId val="148821535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14377,7 +14305,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2057524591"/>
+        <c:crossAx val="2057504623"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14385,7 +14313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2057524591"/>
+        <c:axId val="2057504623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14405,7 +14333,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14436,7 +14364,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148843935"/>
+        <c:crossAx val="148821535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17814,373 +17742,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Escenarios!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Nodos Expandidos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Escenarios!$B$3:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Profundidad</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Amplitud</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>A*Euclides</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>A*Manhattan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Escenarios!$D$3:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D844-40B9-A717-89593582B718}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="148821535"/>
-        <c:axId val="2057504623"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="148821535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2057504623"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2057504623"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="148821535"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>Escenarios!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -18493,7 +18054,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -18860,7 +18421,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -19227,7 +18788,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -19539,6 +19100,373 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="149295695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Escenarios!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Ejecución</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Escenarios!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Profundidad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amplitud</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A*Euclides</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A*Manhattan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Escenarios!$C$35:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.6090145099999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9219340000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.454401E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2060332199999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96E6-4EB8-866A-76D076D090B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="148843935"/>
+        <c:axId val="2057524591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="148843935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2057524591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2057524591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148843935"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -45734,42 +45662,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Gráfico 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD9ACC2-02E6-4CDA-99A0-E7A9603B6E68}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -45798,7 +45690,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -45834,7 +45726,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -45870,7 +45762,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -45908,7 +45800,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -45946,7 +45838,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -45984,7 +45876,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46022,7 +45914,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46060,7 +45952,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46098,7 +45990,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46136,7 +46028,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46174,7 +46066,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46212,7 +46104,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46250,7 +46142,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46288,7 +46180,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46326,7 +46218,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46364,7 +46256,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46402,7 +46294,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46440,7 +46332,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46478,7 +46370,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46516,7 +46408,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46541,6 +46433,44 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B001F1-C47A-4FCC-AFF1-A80A4C1588E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>7144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433388</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="35" name="Gráfico 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904E3CD3-45AB-41A6-9636-EF04E9FD7151}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -47561,6 +47491,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C17C7A75-32ED-41CE-A2A7-728E91C4FD08}" name="Tabla3" displayName="Tabla3" ref="B67:N71" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B67:N71" xr:uid="{0C60DF0B-60BD-4792-8625-02C86312995E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B68:N71">
+    <sortCondition ref="B67:B71"/>
+  </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{377DF019-B49D-43F9-9D97-09989A0008EB}" name="Columnas" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{BCDB2634-5053-40BD-9B4A-2DEBA47F566F}" name="Tiempo Ejecución" dataCellStyle="Normal"/>
@@ -47978,8 +47911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620E936F-ED39-4C99-8DF8-00BF67E784CB}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q94" sqref="Q94"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48500,23 +48433,23 @@
         <v>3.5800933E-3</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:E68" si="0">D3</f>
+        <f>D3</f>
         <v>64</v>
       </c>
       <c r="E68">
-        <f t="shared" si="0"/>
+        <f>E3</f>
         <v>63</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="2">
         <f>C4</f>
         <v>6.2089663999999999E-3</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:H68" si="1">D4</f>
+        <f>D4</f>
         <v>124</v>
       </c>
       <c r="H68">
-        <f t="shared" si="1"/>
+        <f>E4</f>
         <v>31</v>
       </c>
       <c r="I68">
@@ -48524,23 +48457,23 @@
         <v>8.1136100000000003E-3</v>
       </c>
       <c r="J68">
-        <f t="shared" ref="J68:K68" si="2">D5</f>
+        <f>D5</f>
         <v>84</v>
       </c>
       <c r="K68">
-        <f t="shared" si="2"/>
+        <f>E5</f>
         <v>31</v>
       </c>
       <c r="L68">
-        <f t="shared" ref="L68" si="3">C6</f>
+        <f>C6</f>
         <v>3.1230440000000002E-3</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68" si="4">D6</f>
+        <f>D6</f>
         <v>31</v>
       </c>
       <c r="N68">
-        <f t="shared" ref="N68" si="5">E6</f>
+        <f>E6</f>
         <v>31</v>
       </c>
     </row>
@@ -48553,23 +48486,23 @@
         <v>8.4130699999999999E-3</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:E69" si="6">D19</f>
+        <f>D19</f>
         <v>144</v>
       </c>
       <c r="E69">
-        <f t="shared" si="6"/>
+        <f>E19</f>
         <v>77</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="2">
         <f>C20</f>
         <v>4.7040930000000002E-2</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:H69" si="7">D20</f>
+        <f>D20</f>
         <v>600</v>
       </c>
       <c r="H69">
-        <f t="shared" si="7"/>
+        <f>E20</f>
         <v>53</v>
       </c>
       <c r="I69">
@@ -48577,11 +48510,11 @@
         <v>7.1482100000000007E-2</v>
       </c>
       <c r="J69">
-        <f t="shared" ref="J69:K69" si="8">D21</f>
+        <f>D21</f>
         <v>438</v>
       </c>
       <c r="K69">
-        <f t="shared" si="8"/>
+        <f>E21</f>
         <v>53</v>
       </c>
       <c r="L69">
@@ -48589,11 +48522,11 @@
         <v>2.4582799999999998E-2</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:N69" si="9">D22</f>
+        <f>D22</f>
         <v>207</v>
       </c>
       <c r="N69">
-        <f t="shared" si="9"/>
+        <f>E22</f>
         <v>53</v>
       </c>
     </row>
@@ -48613,7 +48546,7 @@
         <f>E35</f>
         <v>49</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="2">
         <f>C36</f>
         <v>7.9219340000000003E-3</v>
       </c>
@@ -48865,8 +48798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3378C10A-A94B-49C2-8459-A4A07A074074}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49320,6 +49253,11 @@
         <v>350</v>
       </c>
     </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>37</v>

--- a/IA/Practica Individual/Graficas.xlsx
+++ b/IA/Practica Individual/Graficas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Gits\crispy-invention\IA\Practica Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96A4316-02FE-4990-B38F-A8E8DD6660F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D750F9F2-D8D0-489A-AEF8-84DEFF6E0987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{56DCA32C-DAB5-4FAA-968E-AEDF8D8E29E3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{56DCA32C-DAB5-4FAA-968E-AEDF8D8E29E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="39">
   <si>
     <t>Escenario 1</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>Tiempo Ejecución</t>
-  </si>
-  <si>
-    <t>Estan mal cogidos los datos</t>
   </si>
 </sst>
 </file>
@@ -7613,9 +7610,6 @@
                 <c:pt idx="0">
                   <c:v>9402</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7701,9 +7695,6 @@
                 <c:pt idx="0">
                   <c:v>3712</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7787,10 +7778,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8234,9 +8225,6 @@
                 <c:pt idx="0">
                   <c:v>9.6256260870000006</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8321,9 +8309,6 @@
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>31.313575980500001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8740,627 +8725,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Coste Camino</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Agentes!$E$66</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>A* ManhattanDistance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Agentes!$B$67:$B$69</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Agentes!$B$68:$B$69</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>trickySearch</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bigSearch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Agentes!$E$67:$E$69</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Agentes!$E$68:$E$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-693F-4834-84FA-77AF3E0EF2B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Agentes!$H$66</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>A* MazeDistance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Agentes!$B$67:$B$69</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Agentes!$B$68:$B$69</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>trickySearch</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bigSearch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Agentes!$H$67:$H$69</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Agentes!$H$68:$H$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-693F-4834-84FA-77AF3E0EF2B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Agentes!$K$66</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ClosesetDotSearch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Agentes!$B$67:$B$69</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Agentes!$B$68:$B$69</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>trickySearch</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bigSearch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Agentes!$K$67:$K$69</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Agentes!$K$68:$K$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>350</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-693F-4834-84FA-77AF3E0EF2B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Agentes!$N$66</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Agentes!$B$67:$B$69</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Agentes!$B$68:$B$69</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>trickySearch</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bigSearch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Agentes!$N$67:$N$69</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Agentes!$N$68:$N$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-693F-4834-84FA-77AF3E0EF2B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2065150031"/>
-        <c:axId val="2057512527"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2065150031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2057512527"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2057512527"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2065150031"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
               <a:t>Tiempo Ejecución</a:t>
             </a:r>
           </a:p>
@@ -9712,7 +9076,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -9888,7 +9252,7 @@
                   <c:v>3712</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10018,6 +9382,367 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="148821535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Agentes!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coste Camino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Agentes!$B$3:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A* ManhattanDistance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A* MazeDistance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ClosesetDotSearch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Agentes!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C1A-4C29-AFA3-8F6035F8D314}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="149295695"/>
+        <c:axId val="2057495887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="149295695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2057495887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2057495887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149295695"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10455,367 +10180,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Agentes!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Coste Camino</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Agentes!$B$3:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>A* ManhattanDistance</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>A* MazeDistance</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ClosesetDotSearch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Agentes!$E$3:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C1A-4C29-AFA3-8F6035F8D314}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="149295695"/>
-        <c:axId val="2057495887"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="149295695"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2057495887"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2057495887"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="149295695"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -11181,7 +10545,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -11351,7 +10715,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="2">
-                  <c:v>350</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11536,7 +10900,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -11891,7 +11255,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -12268,7 +11632,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -12620,7 +11984,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -12972,7 +12336,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -13349,7 +12713,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -13701,7 +13065,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -13998,6 +13362,369 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="149295695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Agentes!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Ejecución</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Agentes!$B$92:$B$94</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Agentes!$B$92:$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Profundidad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A*Manhattan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Agentes!$C$92:$C$94</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Agentes!$C$92:$C$93</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55A2-40EE-9806-DD1F5743DB72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="148843935"/>
+        <c:axId val="2057524591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="148843935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2057524591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2057524591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148843935"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14475,369 +14202,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Agentes!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tiempo Ejecución</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Agentes!$B$92:$B$94</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Agentes!$B$92:$B$93</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Profundidad</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>A*Manhattan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Agentes!$C$92:$C$94</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Agentes!$C$92:$C$93</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-55A2-40EE-9806-DD1F5743DB72}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="148843935"/>
-        <c:axId val="2057524591"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="148843935"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2057524591"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2057524591"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="148843935"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>Agentes!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -15146,7 +14510,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -15509,7 +14873,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -15872,7 +15236,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -16235,7 +15599,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -16598,7 +15962,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -16961,7 +16325,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -17324,7 +16688,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -17643,6 +17007,500 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Nodos Expandidos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Agentes!$D$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A* ManhattanDistance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Agentes!$B$68:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>trickySearch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bigSearch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Agentes!$E$68:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16E3-49FD-B772-4E5958F8E308}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Agentes!$G$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A* MazeDistance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Agentes!$B$68:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>trickySearch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bigSearch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Agentes!$H$68:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-16E3-49FD-B772-4E5958F8E308}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Agentes!$K$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ClosesetDotSearch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Agentes!$B$68:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>trickySearch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bigSearch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Agentes!$K$68:$K$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-16E3-49FD-B772-4E5958F8E308}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="136140671"/>
+        <c:axId val="2057505455"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="136140671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2057505455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2057505455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="136140671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -46573,44 +46431,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE508B4F-30C7-466B-9EC9-EC1A1E8BCCF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -46641,7 +46461,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46679,7 +46499,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46717,7 +46537,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46755,7 +46575,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46793,7 +46613,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46831,7 +46651,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46869,7 +46689,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46907,7 +46727,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46945,7 +46765,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -46983,7 +46803,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -47021,7 +46841,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -47059,7 +46879,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -47097,7 +46917,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -47135,7 +46955,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -47173,7 +46993,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -47211,7 +47031,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -47249,7 +47069,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -47287,7 +47107,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -47325,7 +47145,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -47363,7 +47183,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -47388,6 +47208,44 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11817C1B-7F58-4585-BE80-0AEAB454C5DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Gráfico 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D7D5DBC-474D-4398-ABAE-E8D54AC3A8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -47911,7 +47769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620E936F-ED39-4C99-8DF8-00BF67E784CB}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
@@ -48798,8 +48656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3378C10A-A94B-49C2-8459-A4A07A074074}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M79" sqref="M79"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48864,7 +48722,7 @@
         <v>1.398301125E-2</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="E5">
         <v>68</v>
@@ -48943,7 +48801,7 @@
         <v>0.22431397</v>
       </c>
       <c r="D21">
-        <v>350</v>
+        <v>719</v>
       </c>
       <c r="E21">
         <v>350</v>
@@ -49205,7 +49063,7 @@
       </c>
       <c r="J68">
         <f t="shared" ref="J68:K68" si="2">D5</f>
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="K68">
         <f t="shared" si="2"/>
@@ -49216,46 +49074,17 @@
       <c r="B69" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C69">
-        <f>C19</f>
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <f t="shared" ref="D69:E69" si="3">D19</f>
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <f>C20</f>
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <f t="shared" ref="G69:H69" si="4">D20</f>
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="I69">
         <f>C21</f>
         <v>0.22431397</v>
       </c>
       <c r="J69">
-        <f t="shared" ref="J69:K69" si="5">D21</f>
-        <v>350</v>
+        <f t="shared" ref="J69:K69" si="3">D21</f>
+        <v>719</v>
       </c>
       <c r="K69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>350</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J73" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">

--- a/IA/Practica Individual/Graficas.xlsx
+++ b/IA/Practica Individual/Graficas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Gits\crispy-invention\IA\Practica Individual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xvenve/Gits/crispy-invention/IA/Practica Individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D750F9F2-D8D0-489A-AEF8-84DEFF6E0987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F94941-59B0-4448-B7CC-787658B66DE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{56DCA32C-DAB5-4FAA-968E-AEDF8D8E29E3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{56DCA32C-DAB5-4FAA-968E-AEDF8D8E29E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -202,60 +202,286 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="81">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000000"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -47269,78 +47495,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{371C9C79-DCAE-4E6F-828A-D1C53B3A523F}" name="Tabla1" displayName="Tabla1" ref="B2:E6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{371C9C79-DCAE-4E6F-828A-D1C53B3A523F}" name="Tabla1" displayName="Tabla1" ref="B2:E6" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="B2:E6" xr:uid="{B760DDE7-63DB-40AE-B955-224B26277AF2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7EAA56F3-46A5-40DD-B6DC-58A3E3A6710F}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{34AF07FC-6FA8-4919-AA27-1AD9D2D9A2DC}" name="Tiempo Ejecución" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{3CE91CF4-F548-4568-81BB-72E56D52FE55}" name="Nodos Expandidos"/>
-    <tableColumn id="4" xr3:uid="{21D36883-62AC-424B-B275-5E70B473EF69}" name="Coste Camino"/>
+    <tableColumn id="1" xr3:uid="{7EAA56F3-46A5-40DD-B6DC-58A3E3A6710F}" name="Algoritmo" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{34AF07FC-6FA8-4919-AA27-1AD9D2D9A2DC}" name="Tiempo Ejecución" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{3CE91CF4-F548-4568-81BB-72E56D52FE55}" name="Nodos Expandidos" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{21D36883-62AC-424B-B275-5E70B473EF69}" name="Coste Camino" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{340A46E3-AD69-4991-8474-B984AA9D64CA}" name="Tabla1512" displayName="Tabla1512" ref="B18:E21" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{340A46E3-AD69-4991-8474-B984AA9D64CA}" name="Tabla1512" displayName="Tabla1512" ref="B18:E21" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="B18:E21" xr:uid="{AF88980A-BFC6-40D6-87C2-79EB556B5D3C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{787729DD-9E7E-488E-911E-453732D3D7FD}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{A803B8A2-EC7C-42D9-9469-F92167AB9B28}" name="Tiempo Ejecución" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{15CB53EE-AD4C-4454-9DE6-0C80D87ED445}" name="Nodos Expandidos"/>
-    <tableColumn id="4" xr3:uid="{2E643CBE-932F-41B6-9B7B-30898D78CDA4}" name="Coste Camino"/>
+    <tableColumn id="1" xr3:uid="{787729DD-9E7E-488E-911E-453732D3D7FD}" name="Algoritmo" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A803B8A2-EC7C-42D9-9469-F92167AB9B28}" name="Tiempo Ejecución" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{15CB53EE-AD4C-4454-9DE6-0C80D87ED445}" name="Nodos Expandidos" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{2E643CBE-932F-41B6-9B7B-30898D78CDA4}" name="Coste Camino" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{572099C5-BCCA-4D89-9A9C-FAD0B469E001}" name="Tabla17315" displayName="Tabla17315" ref="B91:E94" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{572099C5-BCCA-4D89-9A9C-FAD0B469E001}" name="Tabla17315" displayName="Tabla17315" ref="B91:E94" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="B91:E94" xr:uid="{6E3B2FCC-B214-4370-B260-1497B6ECDB25}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7E9469FA-BD96-43BC-B16F-1C5026CE1682}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{DA0AD2B6-A225-4273-9361-9972B353572B}" name="Tiempo Ejecución" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{D759E692-D022-402C-834B-3285608A59D1}" name="Nodos Expandidos"/>
-    <tableColumn id="4" xr3:uid="{62F6AF76-1530-4A1C-8989-2CD530CDAAA8}" name="Coste Camino"/>
+    <tableColumn id="1" xr3:uid="{7E9469FA-BD96-43BC-B16F-1C5026CE1682}" name="Algoritmo" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{DA0AD2B6-A225-4273-9361-9972B353572B}" name="Tiempo Ejecución" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D759E692-D022-402C-834B-3285608A59D1}" name="Nodos Expandidos" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{62F6AF76-1530-4A1C-8989-2CD530CDAAA8}" name="Coste Camino" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{9A5ECC6D-D688-4393-9805-B3652056A85A}" name="Tabla173816" displayName="Tabla173816" ref="B106:E108" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{9A5ECC6D-D688-4393-9805-B3652056A85A}" name="Tabla173816" displayName="Tabla173816" ref="B106:E108" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="B106:E108" xr:uid="{2AE78488-3996-4D5A-98D3-F7C44114F08B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2C186032-6FB1-41B0-92D5-17BAA3D74478}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{F7564A83-E33F-4192-AB55-9E6448DF3542}" name="Tiempo Ejecución" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3F74175A-1D43-4854-AF67-B897F95C41F4}" name="Nodos Expandidos"/>
-    <tableColumn id="4" xr3:uid="{66CDEE61-6C5B-4A36-B41C-27A9EEDEE297}" name="Coste Camino"/>
+    <tableColumn id="1" xr3:uid="{2C186032-6FB1-41B0-92D5-17BAA3D74478}" name="Algoritmo" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F7564A83-E33F-4192-AB55-9E6448DF3542}" name="Tiempo Ejecución" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3F74175A-1D43-4854-AF67-B897F95C41F4}" name="Nodos Expandidos" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{66CDEE61-6C5B-4A36-B41C-27A9EEDEE297}" name="Coste Camino" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{BB8438F2-1641-4F4A-AA5F-C53F68003B67}" name="Tabla1613" displayName="Tabla1613" ref="B34:E38" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{BB8438F2-1641-4F4A-AA5F-C53F68003B67}" name="Tabla1613" displayName="Tabla1613" ref="B34:E38" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B34:E38" xr:uid="{A86861A8-C48D-4E06-9D45-80B4395F0592}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4D38715C-F6FF-4ACE-9502-0E70DD65141D}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{947BED08-7C23-4ECB-8B6B-ABDC62A5BB2A}" name="Tiempo Ejecución" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{DB31606D-5711-49D6-9160-C8910FB5CA7C}" name="Nodos Expandidos"/>
-    <tableColumn id="4" xr3:uid="{7B0D2885-CBA6-48DA-AAF4-014DC0BC44E5}" name="Coste Camino"/>
+    <tableColumn id="1" xr3:uid="{4D38715C-F6FF-4ACE-9502-0E70DD65141D}" name="Algoritmo" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{947BED08-7C23-4ECB-8B6B-ABDC62A5BB2A}" name="Tiempo Ejecución" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DB31606D-5711-49D6-9160-C8910FB5CA7C}" name="Nodos Expandidos" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{7B0D2885-CBA6-48DA-AAF4-014DC0BC44E5}" name="Coste Camino" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C9B81279-B0F3-4986-95BB-90523F6F8C5E}" name="Tabla1714" displayName="Tabla1714" ref="B50:E54" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C9B81279-B0F3-4986-95BB-90523F6F8C5E}" name="Tabla1714" displayName="Tabla1714" ref="B50:E54" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B50:E54" xr:uid="{0B54423A-4D20-4AE9-BC00-CF8A80F5D75F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FAAD0C86-D730-4CE5-8083-51245BD58CB2}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{73D1C7C1-D5E0-4449-9D8A-14172FD29987}" name="Tiempo Ejecución" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{9E4EABFD-AB06-4A09-A8EF-E28CE4910C12}" name="Nodos Expandidos"/>
-    <tableColumn id="4" xr3:uid="{19C20B98-9C3A-4DD6-AA75-58689780B4EE}" name="Coste Camino"/>
+    <tableColumn id="1" xr3:uid="{FAAD0C86-D730-4CE5-8083-51245BD58CB2}" name="Algoritmo" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{73D1C7C1-D5E0-4449-9D8A-14172FD29987}" name="Tiempo Ejecución" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9E4EABFD-AB06-4A09-A8EF-E28CE4910C12}" name="Nodos Expandidos" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{19C20B98-9C3A-4DD6-AA75-58689780B4EE}" name="Coste Camino" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -47349,21 +47575,21 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C17C7A75-32ED-41CE-A2A7-728E91C4FD08}" name="Tabla3" displayName="Tabla3" ref="B67:N71" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B67:N71" xr:uid="{0C60DF0B-60BD-4792-8625-02C86312995E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B68:N71">
+  <sortState ref="B68:N71">
     <sortCondition ref="B67:B71"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{377DF019-B49D-43F9-9D97-09989A0008EB}" name="Columnas" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{BCDB2634-5053-40BD-9B4A-2DEBA47F566F}" name="Tiempo Ejecución" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{0D79F496-26B8-4161-82C5-A338F11B3DBE}" name="Nodos Expandidos" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{45294232-1E44-43EC-A6A0-51E098324816}" name="Coste Camino" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{377DF019-B49D-43F9-9D97-09989A0008EB}" name="Columnas" dataDxfId="50" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{BCDB2634-5053-40BD-9B4A-2DEBA47F566F}" name="Tiempo Ejecución" dataDxfId="51" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{0D79F496-26B8-4161-82C5-A338F11B3DBE}" name="Nodos Expandidos" dataDxfId="75" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{45294232-1E44-43EC-A6A0-51E098324816}" name="Coste Camino" dataDxfId="74" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{1F888C1F-9B9E-4AC2-A4AB-1EB625F70489}" name="Tiempo Ejecucion2" dataCellStyle="Normal"/>
     <tableColumn id="6" xr3:uid="{AA2A262D-4C04-47E7-90D9-9E5A12D30AEE}" name="Nodos Expandidos3" dataCellStyle="Normal"/>
     <tableColumn id="7" xr3:uid="{609F8225-CA9C-43E9-B492-51A389B33E19}" name="Coste Camino4" dataCellStyle="Normal"/>
     <tableColumn id="8" xr3:uid="{616FF5C6-698B-4362-BF44-7E4D9936816E}" name="Tiempo Ejecucion5" dataCellStyle="Normal"/>
     <tableColumn id="9" xr3:uid="{0221425E-1CB7-4D38-95AC-19B877359D75}" name="Nodos Expandidos6" dataCellStyle="Normal"/>
     <tableColumn id="10" xr3:uid="{1A9CF8D7-3239-47A8-BE9B-1F010CAA5837}" name="Coste Camino7" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{3654BA25-E1ED-4739-9010-D1EF23FA3C64}" name="Tiempo Ejecucion8" dataDxfId="11" dataCellStyle="Normal">
+    <tableColumn id="11" xr3:uid="{3654BA25-E1ED-4739-9010-D1EF23FA3C64}" name="Tiempo Ejecucion8" dataDxfId="80" dataCellStyle="Normal">
       <calculatedColumnFormula>C6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{85C62F0F-E3AE-4B97-A547-9965654556EB}" name="Nodos Expandidos9" dataCellStyle="Normal"/>
@@ -47374,78 +47600,78 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0350CE6E-AEDD-4181-8F72-E53B7515B8A0}" name="Tabla15" displayName="Tabla15" ref="B18:E22" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0350CE6E-AEDD-4181-8F72-E53B7515B8A0}" name="Tabla15" displayName="Tabla15" ref="B18:E22" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="B18:E22" xr:uid="{AF88980A-BFC6-40D6-87C2-79EB556B5D3C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6FEC9313-DD2C-4A0E-866A-3755F70D105F}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{8ECF90AB-F1C7-41F5-B465-4122BC5E17B0}" name="Tiempo Ejecución" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{8C82F9AD-F2B7-4851-87D5-9A6486025B51}" name="Nodos Expandidos"/>
-    <tableColumn id="4" xr3:uid="{C210128C-0E23-4B10-9B8E-17A708CB3132}" name="Coste Camino"/>
+    <tableColumn id="1" xr3:uid="{6FEC9313-DD2C-4A0E-866A-3755F70D105F}" name="Algoritmo" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{8ECF90AB-F1C7-41F5-B465-4122BC5E17B0}" name="Tiempo Ejecución" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{8C82F9AD-F2B7-4851-87D5-9A6486025B51}" name="Nodos Expandidos" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{C210128C-0E23-4B10-9B8E-17A708CB3132}" name="Coste Camino" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{04A98E6A-2C2F-48C2-8780-C1A38805BEA4}" name="Tabla16" displayName="Tabla16" ref="B34:E38" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{04A98E6A-2C2F-48C2-8780-C1A38805BEA4}" name="Tabla16" displayName="Tabla16" ref="B34:E38" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="B34:E38" xr:uid="{A86861A8-C48D-4E06-9D45-80B4395F0592}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D5805179-DC36-4F71-AA22-DDF6AFE3AC2F}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{36331AAE-2ADB-4D19-9BFE-408978DD9184}" name="Tiempo Ejecución" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{D9D46F58-69CF-4280-B9B5-7C0E7C2AB38A}" name="Nodos Expandidos"/>
-    <tableColumn id="4" xr3:uid="{063CA56F-46E1-44BE-B25E-7EFDCC5187BE}" name="Coste Camino"/>
+    <tableColumn id="1" xr3:uid="{D5805179-DC36-4F71-AA22-DDF6AFE3AC2F}" name="Algoritmo" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{36331AAE-2ADB-4D19-9BFE-408978DD9184}" name="Tiempo Ejecución" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{D9D46F58-69CF-4280-B9B5-7C0E7C2AB38A}" name="Nodos Expandidos" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{063CA56F-46E1-44BE-B25E-7EFDCC5187BE}" name="Coste Camino" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F70690C5-2C8D-4EFC-BAAC-F30E29802AE4}" name="Tabla17" displayName="Tabla17" ref="B50:E54" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F70690C5-2C8D-4EFC-BAAC-F30E29802AE4}" name="Tabla17" displayName="Tabla17" ref="B50:E54" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="B50:E54" xr:uid="{0B54423A-4D20-4AE9-BC00-CF8A80F5D75F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{25091765-E81C-4BC4-8A3B-BA9A52813F6C}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{5FE4893D-44EF-4492-B176-6C7A7291B355}" name="Tiempo Ejecución" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D465E9DF-AAAC-4418-B906-D247666F5C49}" name="Nodos Expandidos"/>
-    <tableColumn id="4" xr3:uid="{5035EDB0-D0DE-441D-9F2F-B0578921295A}" name="Coste Camino"/>
+    <tableColumn id="1" xr3:uid="{25091765-E81C-4BC4-8A3B-BA9A52813F6C}" name="Algoritmo" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{5FE4893D-44EF-4492-B176-6C7A7291B355}" name="Tiempo Ejecución" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{D465E9DF-AAAC-4418-B906-D247666F5C49}" name="Nodos Expandidos" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{5035EDB0-D0DE-441D-9F2F-B0578921295A}" name="Coste Camino" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{56812FA3-26FA-4F68-BC79-BD78AE28FC45}" name="Tabla173" displayName="Tabla173" ref="B91:E94" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{56812FA3-26FA-4F68-BC79-BD78AE28FC45}" name="Tabla173" displayName="Tabla173" ref="B91:E94" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="B91:E94" xr:uid="{6E3B2FCC-B214-4370-B260-1497B6ECDB25}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{58C4AED7-D380-4D1D-8D19-4D70E252E081}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{C613B2F9-DC18-4742-A0B7-4129B161FC35}" name="Tiempo Ejecución" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{72742A97-0BF4-4855-BF6F-178DD1ABF14D}" name="Nodos Expandidos"/>
-    <tableColumn id="4" xr3:uid="{C0DDFFD3-6A3A-4A30-BFC5-03930FE04C88}" name="Coste Camino"/>
+    <tableColumn id="1" xr3:uid="{58C4AED7-D380-4D1D-8D19-4D70E252E081}" name="Algoritmo" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{C613B2F9-DC18-4742-A0B7-4129B161FC35}" name="Tiempo Ejecución" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{72742A97-0BF4-4855-BF6F-178DD1ABF14D}" name="Nodos Expandidos" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{C0DDFFD3-6A3A-4A30-BFC5-03930FE04C88}" name="Coste Camino" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{52ED5187-222B-417C-A068-2234CB12A4C0}" name="Tabla1738" displayName="Tabla1738" ref="B106:E108" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{52ED5187-222B-417C-A068-2234CB12A4C0}" name="Tabla1738" displayName="Tabla1738" ref="B106:E108" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="B106:E108" xr:uid="{2AE78488-3996-4D5A-98D3-F7C44114F08B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{05D572EE-2DA1-4A34-8A37-13A383E919C6}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{13DF088C-F4C3-4FDA-AA2B-EEC0F9571A8C}" name="Tiempo Ejecución" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{0E25C718-D4C2-4B45-AE3F-FFD0E180198B}" name="Nodos Expandidos"/>
-    <tableColumn id="4" xr3:uid="{D5E0F2DB-B873-41FF-9A92-74FE296410EB}" name="Coste Camino"/>
+    <tableColumn id="1" xr3:uid="{05D572EE-2DA1-4A34-8A37-13A383E919C6}" name="Algoritmo" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{13DF088C-F4C3-4FDA-AA2B-EEC0F9571A8C}" name="Tiempo Ejecución" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{0E25C718-D4C2-4B45-AE3F-FFD0E180198B}" name="Nodos Expandidos" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{D5E0F2DB-B873-41FF-9A92-74FE296410EB}" name="Coste Camino" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8786689D-B9D2-4127-8065-0B0A550F9502}" name="Tabla110" displayName="Tabla110" ref="B2:E5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8786689D-B9D2-4127-8065-0B0A550F9502}" name="Tabla110" displayName="Tabla110" ref="B2:E5" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="B2:E5" xr:uid="{B760DDE7-63DB-40AE-B955-224B26277AF2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{43477D65-6755-4EF2-ACEF-0AE1C4BC0EAF}" name="Algoritmo"/>
-    <tableColumn id="2" xr3:uid="{C1951E67-6611-41AE-9E6C-BC7B8B23071E}" name="Tiempo Ejecución" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{04592EA8-F4FC-4C4E-8CEB-549ABB391773}" name="Nodos Expandidos"/>
-    <tableColumn id="4" xr3:uid="{BE7F27C8-BD36-4CC6-9D4B-D4CAE95C16E0}" name="Coste Camino"/>
+    <tableColumn id="1" xr3:uid="{43477D65-6755-4EF2-ACEF-0AE1C4BC0EAF}" name="Algoritmo" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{C1951E67-6611-41AE-9E6C-BC7B8B23071E}" name="Tiempo Ejecución" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{04592EA8-F4FC-4C4E-8CEB-549ABB391773}" name="Nodos Expandidos" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{BE7F27C8-BD36-4CC6-9D4B-D4CAE95C16E0}" name="Coste Camino" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -47455,10 +47681,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E4493675-83B7-4B88-9E55-B555F686FC3F}" name="Tabla311" displayName="Tabla311" ref="B67:K69" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B67:K69" xr:uid="{0C60DF0B-60BD-4792-8625-02C86312995E}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A75E83D3-03C1-44BA-B2CD-4609EB197B8D}" name="Columnas" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{2E580B51-FF94-4FDF-8CA8-A80E2F43DD07}" name="Tiempo Ejecución" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{7686BE02-5923-471F-AE6C-0B19C280FD22}" name="Nodos Expandidos" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{769E4DE2-CAA5-4DFA-B0F4-050C66C72607}" name="Coste Camino" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{A75E83D3-03C1-44BA-B2CD-4609EB197B8D}" name="Columnas" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{2E580B51-FF94-4FDF-8CA8-A80E2F43DD07}" name="Tiempo Ejecución" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{7686BE02-5923-471F-AE6C-0B19C280FD22}" name="Nodos Expandidos" dataDxfId="35" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{769E4DE2-CAA5-4DFA-B0F4-050C66C72607}" name="Coste Camino" dataDxfId="34" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{158C7D72-540B-4EC0-A7FB-6A881265368F}" name="Tiempo Ejecucion2" dataCellStyle="Normal"/>
     <tableColumn id="6" xr3:uid="{8991B9A1-9F48-491B-AE11-EC6D276E690C}" name="Nodos Expandidos3" dataCellStyle="Normal"/>
     <tableColumn id="7" xr3:uid="{819EB408-2D78-471B-BCA5-AE3D895F468F}" name="Coste Camino4" dataCellStyle="Normal"/>
@@ -47769,448 +47995,450 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620E936F-ED39-4C99-8DF8-00BF67E784CB}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+    <sheetView topLeftCell="C87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3"/>
-    <col min="2" max="15" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="2" max="2" width="20.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="20.6640625" style="4" customWidth="1"/>
+    <col min="6" max="15" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>3.5800933E-3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>64</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>6.2089663999999999E-3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>124</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>8.1136100000000003E-3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>84</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>3.1230440000000002E-3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>31</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="6">
         <v>8.4130699999999999E-3</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>144</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="6">
         <v>4.7040930000000002E-2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>600</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="6">
         <v>7.1482100000000007E-2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>438</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="6">
         <v>2.4582799999999998E-2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>207</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="2"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>3</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="6">
         <v>2.6090145099999999E-3</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>51</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <v>49</v>
       </c>
-      <c r="R35" s="2"/>
+      <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="6">
         <v>7.9219340000000003E-3</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <v>158</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
         <v>47</v>
       </c>
-      <c r="R36" s="2"/>
+      <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="6">
         <v>1.454401E-2</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>158</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <v>47</v>
       </c>
-      <c r="R37" s="2"/>
+      <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="6">
         <v>1.2060332199999999E-2</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>147</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
         <v>47</v>
       </c>
-      <c r="R38" s="2"/>
+      <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C39" s="2"/>
-      <c r="R39" s="2"/>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C39" s="6"/>
+      <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C40" s="2"/>
-      <c r="R40" s="2"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C40" s="6"/>
+      <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C41" s="2"/>
-      <c r="R41" s="2"/>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C41" s="6"/>
+      <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C42" s="2" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R42" s="2"/>
+      <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C43" s="2" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R43" s="2"/>
+      <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C44" s="2" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R44" s="2"/>
+      <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C45" s="2"/>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C47" s="2"/>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C48" s="2"/>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>4</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="6">
         <v>3.3699989319999998E-2</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="4">
         <v>528</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>360</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="6">
         <v>8.8829990000000008E-3</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="4">
         <v>172</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="6">
         <v>1.4991998669999999E-2</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="4">
         <v>145</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="6">
         <v>1.2314081189999999E-2</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="4">
         <v>137</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C66" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
@@ -48241,17 +48469,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F67" t="s">
@@ -48282,23 +48510,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="4">
         <f>C3</f>
         <v>3.5800933E-3</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="4">
         <f>D3</f>
         <v>64</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="4">
         <f>E3</f>
         <v>63</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <f>C4</f>
         <v>6.2089663999999999E-3</v>
       </c>
@@ -48335,23 +48563,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="4">
         <f>C19</f>
         <v>8.4130699999999999E-3</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="4">
         <f>D19</f>
         <v>144</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="4">
         <f>E19</f>
         <v>77</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <f>C20</f>
         <v>4.7040930000000002E-2</v>
       </c>
@@ -48388,23 +48616,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="4">
         <f>C35</f>
         <v>2.6090145099999999E-3</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="4">
         <f>D35</f>
         <v>51</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="4">
         <f>E35</f>
         <v>49</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="1">
         <f>C36</f>
         <v>7.9219340000000003E-3</v>
       </c>
@@ -48441,19 +48669,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="4">
         <f>C51</f>
         <v>3.3699989319999998E-2</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="4">
         <f>D51</f>
         <v>528</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="4">
         <f>E51</f>
         <v>360</v>
       </c>
@@ -48494,146 +48722,146 @@
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="6">
         <v>2.7258389999999999E-3</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="4">
         <v>49</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="6">
         <v>2.1841044E-2</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="4">
         <v>264</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="6">
         <v>1.4280080000000001E-2</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="4">
         <v>264</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C95" s="2"/>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="6">
         <v>4.5365040882000003E-2</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="4">
         <v>316</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="6">
         <v>1.7847776409999998E-2</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="4">
         <v>318</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C109" s="2"/>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C110" s="2"/>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="4"/>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" s="7"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="2"/>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="2"/>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="2"/>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="2"/>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="2"/>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -48656,326 +48884,328 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3378C10A-A94B-49C2-8459-A4A07A074074}">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3"/>
-    <col min="2" max="15" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="2" max="2" width="20.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="20.6640625" style="4" customWidth="1"/>
+    <col min="6" max="15" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>9.6256260870000006</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>9402</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>31.313575980500001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>3712</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>1.398301125E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>132</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="6">
         <v>0.22431397</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>719</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="2"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="R35" s="2"/>
+      <c r="C35" s="6"/>
+      <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="R36" s="2"/>
+      <c r="C36" s="6"/>
+      <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="R37" s="2"/>
+      <c r="C37" s="6"/>
+      <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="R38" s="2"/>
+      <c r="C38" s="6"/>
+      <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C39" s="2"/>
-      <c r="R39" s="2"/>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C39" s="6"/>
+      <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C40" s="2"/>
-      <c r="R40" s="2"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C40" s="6"/>
+      <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C41" s="2"/>
-      <c r="R41" s="2"/>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C41" s="6"/>
+      <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C42" s="2"/>
-      <c r="R42" s="2"/>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C42" s="6"/>
+      <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C43" s="2"/>
-      <c r="R43" s="2"/>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C43" s="6"/>
+      <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C44" s="2"/>
-      <c r="R44" s="2"/>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C44" s="6"/>
+      <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C45" s="2"/>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C47" s="2"/>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C48" s="2"/>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="6"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C66" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F66" t="s">
@@ -48997,17 +49227,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F67" t="s">
@@ -49029,19 +49259,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="4">
         <f>C3</f>
         <v>9.6256260870000006</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="4">
         <f t="shared" ref="D68:E68" si="0">D3</f>
         <v>9402</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -49070,8 +49300,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="5" t="s">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I69">
@@ -49087,96 +49317,96 @@
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="2"/>
+      <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="2"/>
+      <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="2"/>
+      <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C95" s="2"/>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C95" s="6"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="2"/>
+      <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C108" s="2"/>
+      <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C109" s="2"/>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C110" s="2"/>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C110" s="6"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="4"/>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" s="7"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="2"/>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="2"/>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="2"/>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="2"/>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="2"/>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
